--- a/src/CWDataStudent.xlsx
+++ b/src/CWDataStudent.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Loughborough\3rd year\Advanced Artificial Intelligence Systems\Coursework\COC102---ANN-Implementation\src\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6945" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
@@ -103,7 +98,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -652,9 +647,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -666,6 +661,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -698,8 +694,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -714,22 +711,8 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
+          <c:invertIfNegative val="0"/>
+          <c:val>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$598</c:f>
               <c:numCache>
@@ -2528,9 +2511,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A8E1-47E8-BC84-D267AFEFEFD6}"/>
             </c:ext>
@@ -2544,11 +2526,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="325918656"/>
-        <c:axId val="325915704"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="325918656"/>
+        <c:gapWidth val="150"/>
+        <c:axId val="45837696"/>
+        <c:axId val="207875072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="45837696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2590,12 +2573,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325915704"/>
+        <c:crossAx val="207875072"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="325915704"/>
+        <c:axId val="207875072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2646,9 +2632,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325918656"/>
+        <c:crossAx val="45837696"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2696,9 +2682,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2735,6 +2721,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2743,32 +2730,13 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2780,22 +2748,8 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
+          <c:invertIfNegative val="0"/>
+          <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$598</c:f>
               <c:numCache>
@@ -4594,9 +4548,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A0BE-457C-A5E6-BA7D97A38976}"/>
             </c:ext>
@@ -4610,11 +4563,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="393260528"/>
-        <c:axId val="393260856"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="393260528"/>
+        <c:gapWidth val="150"/>
+        <c:axId val="132200704"/>
+        <c:axId val="208454400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="132200704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4656,12 +4610,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393260856"/>
+        <c:crossAx val="208454400"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="393260856"/>
+        <c:axId val="208454400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4712,9 +4669,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393260528"/>
+        <c:crossAx val="132200704"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4762,9 +4719,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4801,6 +4758,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4809,32 +4767,13 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4846,22 +4785,8 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
+          <c:invertIfNegative val="0"/>
+          <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$2:$C$598</c:f>
               <c:numCache>
@@ -6660,9 +6585,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BA66-405A-B1B7-5893C46291A2}"/>
             </c:ext>
@@ -6676,11 +6600,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="454442008"/>
-        <c:axId val="454445944"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="454442008"/>
+        <c:gapWidth val="150"/>
+        <c:axId val="46064384"/>
+        <c:axId val="216344832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46064384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6736,12 +6661,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454445944"/>
+        <c:crossAx val="216344832"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="454445944"/>
+        <c:axId val="216344832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6798,9 +6726,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454442008"/>
+        <c:crossAx val="46064384"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -6848,9 +6776,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6887,6 +6815,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6895,32 +6824,13 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -6932,22 +6842,8 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
+          <c:invertIfNegative val="0"/>
+          <c:val>
             <c:numRef>
               <c:f>Sheet1!$D$2:$D$598</c:f>
               <c:numCache>
@@ -8746,9 +8642,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D6CC-406A-805F-B3D17A8CE68B}"/>
             </c:ext>
@@ -8762,11 +8657,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="516134616"/>
-        <c:axId val="516135272"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="516134616"/>
+        <c:gapWidth val="150"/>
+        <c:axId val="46462848"/>
+        <c:axId val="216395776"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46462848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8822,12 +8718,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516135272"/>
+        <c:crossAx val="216395776"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="516135272"/>
+        <c:axId val="216395776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8884,9 +8783,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516134616"/>
+        <c:crossAx val="46462848"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -8934,9 +8833,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8973,6 +8872,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8981,32 +8881,13 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -9018,22 +8899,8 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
+          <c:invertIfNegative val="0"/>
+          <c:val>
             <c:numRef>
               <c:f>Sheet1!$E$2:$E$598</c:f>
               <c:numCache>
@@ -10832,9 +10699,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B6AF-4F88-ACD5-B0E507AD78BC}"/>
             </c:ext>
@@ -10848,11 +10714,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="516161184"/>
-        <c:axId val="516162496"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="516161184"/>
+        <c:gapWidth val="150"/>
+        <c:axId val="43590400"/>
+        <c:axId val="216311296"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="43590400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10908,12 +10775,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516162496"/>
+        <c:crossAx val="216311296"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="516162496"/>
+        <c:axId val="216311296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10970,9 +10840,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516161184"/>
+        <c:crossAx val="43590400"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -11020,9 +10890,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11059,6 +10929,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11067,32 +10938,13 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -11104,22 +10956,8 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
+          <c:invertIfNegative val="0"/>
+          <c:val>
             <c:numRef>
               <c:f>Sheet1!$F$2:$F$598</c:f>
               <c:numCache>
@@ -12915,9 +12753,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C15F-45D7-B21C-ABE568FEE269}"/>
             </c:ext>
@@ -12931,11 +12768,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="516126744"/>
-        <c:axId val="516127728"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="516126744"/>
+        <c:gapWidth val="150"/>
+        <c:axId val="45793280"/>
+        <c:axId val="216208512"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="45793280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12991,12 +12829,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516127728"/>
+        <c:crossAx val="216208512"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="516127728"/>
+        <c:axId val="216208512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13053,9 +12894,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516126744"/>
+        <c:crossAx val="45793280"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -13103,9 +12944,9 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13139,10 +12980,10 @@
               <a:rPr lang="en-US"/>
               <a:t>RMED-1D</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13151,32 +12992,13 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -13188,26 +13010,8 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="88500"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:tint val="88500"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
+          <c:invertIfNegative val="0"/>
+          <c:val>
             <c:numRef>
               <c:f>Sheet1!$G$2:$G$598</c:f>
               <c:numCache>
@@ -15006,9 +14810,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4C05-4810-8164-03BFA67ED701}"/>
             </c:ext>
@@ -15022,11 +14825,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="516120184"/>
-        <c:axId val="516120840"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="516120184"/>
+        <c:gapWidth val="150"/>
+        <c:axId val="48506752"/>
+        <c:axId val="216249472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="48506752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15082,12 +14886,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516120840"/>
+        <c:crossAx val="216249472"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="516120840"/>
+        <c:axId val="216249472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15144,9 +14951,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516120184"/>
+        <c:crossAx val="48506752"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -15194,9 +15001,9 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15233,6 +15040,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15241,32 +15049,13 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -15278,22 +15067,8 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
+          <c:invertIfNegative val="0"/>
+          <c:val>
             <c:numRef>
               <c:f>Sheet1!$H$2:$H$598</c:f>
               <c:numCache>
@@ -17089,9 +16864,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-84E0-4227-9896-A1551FA31988}"/>
             </c:ext>
@@ -17105,11 +16879,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="519951968"/>
-        <c:axId val="519952624"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="519951968"/>
+        <c:gapWidth val="150"/>
+        <c:axId val="134988160"/>
+        <c:axId val="221980928"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="134988160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17165,12 +16940,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519952624"/>
+        <c:crossAx val="221980928"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="519952624"/>
+        <c:axId val="221980928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17227,9 +17005,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519951968"/>
+        <c:crossAx val="134988160"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -17277,9 +17055,9 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -17316,6 +17094,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17324,32 +17103,13 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -17361,22 +17121,8 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
+          <c:invertIfNegative val="0"/>
+          <c:val>
             <c:numRef>
               <c:f>Sheet1!$I$2:$I$598</c:f>
               <c:numCache>
@@ -19175,9 +18921,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2FCA-4224-B984-52BF6A365E12}"/>
             </c:ext>
@@ -19191,11 +18936,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="519939176"/>
-        <c:axId val="519932944"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="519939176"/>
+        <c:gapWidth val="150"/>
+        <c:axId val="44618112"/>
+        <c:axId val="222014848"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="44618112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19251,12 +18997,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519932944"/>
+        <c:crossAx val="222014848"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="519932944"/>
+        <c:axId val="222014848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19313,9 +19062,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519939176"/>
+        <c:crossAx val="44618112"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -24249,7 +23998,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D18814D-14A7-40CF-98FA-83EEDF81C48C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D18814D-14A7-40CF-98FA-83EEDF81C48C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24285,7 +24034,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E363FCF-E7E7-4597-AE03-CFFD1B11A404}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E363FCF-E7E7-4597-AE03-CFFD1B11A404}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24321,7 +24070,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3CF39FC-AA34-48AE-B502-9BE7061B02B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C3CF39FC-AA34-48AE-B502-9BE7061B02B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24357,7 +24106,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E63713-015B-484A-9F20-7B2D7E6B492D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94E63713-015B-484A-9F20-7B2D7E6B492D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24393,7 +24142,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{597C8FB2-D3F3-4016-BED9-7F1FA2D43AFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{597C8FB2-D3F3-4016-BED9-7F1FA2D43AFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24429,7 +24178,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{337BB49C-6BE9-463F-BEB3-3C490DB0C72A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{337BB49C-6BE9-463F-BEB3-3C490DB0C72A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24465,7 +24214,7 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7B909C4-0D5C-4E39-B012-07729D00EE83}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7B909C4-0D5C-4E39-B012-07729D00EE83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24501,7 +24250,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48A26D36-27A1-4D86-8A29-C456CB068B97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48A26D36-27A1-4D86-8A29-C456CB068B97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24537,7 +24286,7 @@
         <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67AC1F0E-3C3C-4506-8466-9CA830DC4907}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67AC1F0E-3C3C-4506-8466-9CA830DC4907}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24601,7 +24350,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -24634,26 +24383,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -24686,23 +24418,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -24885,14 +24600,14 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.1796875" style="2"/>
-    <col min="3" max="3" width="9.1796875" style="2" customWidth="1"/>
-    <col min="4" max="9" width="9.1796875" style="2"/>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="9.140625" style="2" customWidth="1"/>
+    <col min="4" max="9" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -24924,7 +24639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1800.92</v>
       </c>
@@ -24959,7 +24674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>31.4</v>
       </c>
@@ -24994,7 +24709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>130.1</v>
       </c>
@@ -25029,7 +24744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>344.36</v>
       </c>
@@ -25064,7 +24779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>710.96</v>
       </c>
@@ -25099,7 +24814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>67.25</v>
       </c>
@@ -25134,7 +24849,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>851.65</v>
       </c>
@@ -25169,7 +24884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>70.459999999999994</v>
       </c>
@@ -25204,7 +24919,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>73.06</v>
       </c>
@@ -25239,7 +24954,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>661.92</v>
       </c>
@@ -25268,7 +24983,7 @@
         <v>203.101</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2172.36</v>
       </c>
@@ -25297,7 +25012,7 @@
         <v>880.58199999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>204.57</v>
       </c>
@@ -25329,7 +25044,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>183.79</v>
       </c>
@@ -25361,7 +25076,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>41.01</v>
       </c>
@@ -25390,7 +25105,7 @@
         <v>29.911999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>48.51</v>
       </c>
@@ -25419,7 +25134,7 @@
         <v>12.978</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1008.74</v>
       </c>
@@ -25448,7 +25163,7 @@
         <v>222.98699999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44.59</v>
       </c>
@@ -25477,7 +25192,7 @@
         <v>10.74</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>7.51</v>
       </c>
@@ -25506,7 +25221,7 @@
         <v>5.9844999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>131.51</v>
       </c>
@@ -25535,7 +25250,7 @@
         <v>52.036000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>147.13999999999999</v>
       </c>
@@ -25564,7 +25279,7 @@
         <v>82.963999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>4329.83</v>
       </c>
@@ -25593,7 +25308,7 @@
         <v>337.01900000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>276.57</v>
       </c>
@@ -25622,7 +25337,7 @@
         <v>87.59</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>86.87</v>
       </c>
@@ -25651,7 +25366,7 @@
         <v>71.790999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>196.12</v>
       </c>
@@ -25680,7 +25395,7 @@
         <v>43.264000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43.93</v>
       </c>
@@ -25709,7 +25424,7 @@
         <v>41.904000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>111.76</v>
       </c>
@@ -25738,7 +25453,7 @@
         <v>29.920999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>79.92</v>
       </c>
@@ -25767,7 +25482,7 @@
         <v>45.54</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>464.65</v>
       </c>
@@ -25796,7 +25511,7 @@
         <v>312.78197999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>26.31</v>
       </c>
@@ -25825,7 +25540,7 @@
         <v>3.2989999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>509.54</v>
       </c>
@@ -25854,7 +25569,7 @@
         <v>97.838499999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>46.28</v>
       </c>
@@ -25883,7 +25598,7 @@
         <v>62.850501999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>363.01</v>
       </c>
@@ -25912,7 +25627,7 @@
         <v>97.956999999999994</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1121.49</v>
       </c>
@@ -25941,7 +25656,7 @@
         <v>350.31900000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>273.62</v>
       </c>
@@ -25970,7 +25685,7 @@
         <v>53.939500000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>21.61</v>
       </c>
@@ -25999,7 +25714,7 @@
         <v>12.993999499999999</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>532.29</v>
       </c>
@@ -26028,7 +25743,7 @@
         <v>57.192999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44.31</v>
       </c>
@@ -26057,7 +25772,7 @@
         <v>37.518000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>72.16</v>
       </c>
@@ -26086,7 +25801,7 @@
         <v>39.277999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>110.98</v>
       </c>
@@ -26115,7 +25830,7 @@
         <v>63.798000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>72.069999999999993</v>
       </c>
@@ -26144,7 +25859,7 @@
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>220.39</v>
       </c>
@@ -26173,7 +25888,7 @@
         <v>81.271500000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>70.11</v>
       </c>
@@ -26202,7 +25917,7 @@
         <v>101.718506</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>102.05</v>
       </c>
@@ -26231,7 +25946,7 @@
         <v>32.442999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>67.08</v>
       </c>
@@ -26260,7 +25975,7 @@
         <v>30.72</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>37.369999999999997</v>
       </c>
@@ -26289,7 +26004,7 @@
         <v>5.9160000000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>475.92</v>
       </c>
@@ -26318,7 +26033,7 @@
         <v>14.8245</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>159.94</v>
       </c>
@@ -26347,7 +26062,7 @@
         <v>4.9459999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>29.52</v>
       </c>
@@ -26376,7 +26091,7 @@
         <v>1.9195</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>311.37</v>
       </c>
@@ -26405,7 +26120,7 @@
         <v>8.0050000000000008</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>76.64</v>
       </c>
@@ -26434,7 +26149,7 @@
         <v>11.943</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>1833.26</v>
       </c>
@@ -26463,7 +26178,7 @@
         <v>556.40200000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>365.69</v>
       </c>
@@ -26492,7 +26207,7 @@
         <v>141.86449999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>216.18</v>
       </c>
@@ -26521,7 +26236,7 @@
         <v>49.924999999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>215.68</v>
       </c>
@@ -26550,7 +26265,7 @@
         <v>15.227499999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>92.75</v>
       </c>
@@ -26579,7 +26294,7 @@
         <v>13.571</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>419.59</v>
       </c>
@@ -26608,7 +26323,7 @@
         <v>37.42</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>27.55</v>
       </c>
@@ -26637,7 +26352,7 @@
         <v>1.014</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>83.87</v>
       </c>
@@ -26666,7 +26381,7 @@
         <v>1.0239999</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>23.93</v>
       </c>
@@ -26695,7 +26410,7 @@
         <v>11.0105</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>51.9</v>
       </c>
@@ -26724,7 +26439,7 @@
         <v>55.290500000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>277.83</v>
       </c>
@@ -26753,7 +26468,7 @@
         <v>80.132000000000005</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>423.73</v>
       </c>
@@ -26782,7 +26497,7 @@
         <v>143.55250000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>55.33</v>
       </c>
@@ -26811,7 +26526,7 @@
         <v>8.0284999999999993</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>219.28</v>
       </c>
@@ -26840,7 +26555,7 @@
         <v>93.647000000000006</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>16.78</v>
       </c>
@@ -26869,7 +26584,7 @@
         <v>1.1935</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>176.63</v>
       </c>
@@ -26898,7 +26613,7 @@
         <v>26.832000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>441.1</v>
       </c>
@@ -26927,7 +26642,7 @@
         <v>130.02000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>235.21</v>
       </c>
@@ -26956,7 +26671,7 @@
         <v>3.5449999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>31.53</v>
       </c>
@@ -26985,7 +26700,7 @@
         <v>28.010999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>137.99</v>
       </c>
@@ -27014,7 +26729,7 @@
         <v>14.714499999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>80.400000000000006</v>
       </c>
@@ -27043,7 +26758,7 @@
         <v>3.2480001000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>88</v>
       </c>
@@ -27072,7 +26787,7 @@
         <v>83.048500000000004</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>85.7</v>
       </c>
@@ -27101,7 +26816,7 @@
         <v>12.51</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>36.799999999999997</v>
       </c>
@@ -27130,7 +26845,7 @@
         <v>16.791499999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>1267.0999999999999</v>
       </c>
@@ -27159,7 +26874,7 @@
         <v>391.952</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>80.2</v>
       </c>
@@ -27188,7 +26903,7 @@
         <v>59.564999999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>142.76</v>
       </c>
@@ -27217,7 +26932,7 @@
         <v>132.887</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>74.260000000000005</v>
       </c>
@@ -27246,7 +26961,7 @@
         <v>30.622501</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>-999</v>
       </c>
@@ -27275,7 +26990,7 @@
         <v>63.140999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>237.23</v>
       </c>
@@ -27304,7 +27019,7 @@
         <v>106.947</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>707.72</v>
       </c>
@@ -27333,7 +27048,7 @@
         <v>16.643501000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>95.53</v>
       </c>
@@ -27362,7 +27077,7 @@
         <v>2.6525002</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>161.41</v>
       </c>
@@ -27391,7 +27106,7 @@
         <v>6.2210000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>16.03</v>
       </c>
@@ -27420,7 +27135,7 @@
         <v>12.3125</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>247.09</v>
       </c>
@@ -27449,7 +27164,7 @@
         <v>11.5825</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>324.39</v>
       </c>
@@ -27478,7 +27193,7 @@
         <v>190.012</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>12.79</v>
       </c>
@@ -27507,7 +27222,7 @@
         <v>15.362</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>100.76</v>
       </c>
@@ -27536,7 +27251,7 @@
         <v>10.692</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>22.27</v>
       </c>
@@ -27565,7 +27280,7 @@
         <v>37.405999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>100.1</v>
       </c>
@@ -27594,7 +27309,7 @@
         <v>2.2240000000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>246.4</v>
       </c>
@@ -27623,7 +27338,7 @@
         <v>175.30099999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>147.85</v>
       </c>
@@ -27652,7 +27367,7 @@
         <v>45.644500000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>212</v>
       </c>
@@ -27681,7 +27396,7 @@
         <v>74.983000000000004</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>38.479999999999997</v>
       </c>
@@ -27710,7 +27425,7 @@
         <v>12.8505</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>107.29</v>
       </c>
@@ -27739,7 +27454,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>128.9</v>
       </c>
@@ -27768,7 +27483,7 @@
         <v>18.651</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>67.75</v>
       </c>
@@ -27797,7 +27512,7 @@
         <v>17.238</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>19.09</v>
       </c>
@@ -27826,7 +27541,7 @@
         <v>13.356999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>47.49</v>
       </c>
@@ -27855,7 +27570,7 @@
         <v>69.063000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>306.06</v>
       </c>
@@ -27884,7 +27599,7 @@
         <v>7.9829999999999997</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>71.180000000000007</v>
       </c>
@@ -27913,7 +27628,7 @@
         <v>63.66</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>114.01</v>
       </c>
@@ -27942,7 +27657,7 @@
         <v>4.6429999999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>1483.65</v>
       </c>
@@ -27971,7 +27686,7 @@
         <v>164.11600000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>123.45</v>
       </c>
@@ -28000,7 +27715,7 @@
         <v>111.34699999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>57.92</v>
       </c>
@@ -28029,7 +27744,7 @@
         <v>1.873</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>202.32</v>
       </c>
@@ -28058,7 +27773,7 @@
         <v>80.885999999999996</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>786.1</v>
       </c>
@@ -28087,7 +27802,7 @@
         <v>123.93899500000001</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>239.07</v>
       </c>
@@ -28116,7 +27831,7 @@
         <v>60.606499999999997</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>925.03</v>
       </c>
@@ -28145,7 +27860,7 @@
         <v>317.10498000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>194.15</v>
       </c>
@@ -28174,7 +27889,7 @@
         <v>286.77</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>34.369999999999997</v>
       </c>
@@ -28203,7 +27918,7 @@
         <v>37.765000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>781.74</v>
       </c>
@@ -28232,7 +27947,7 @@
         <v>319.89850000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>126.74</v>
       </c>
@@ -28261,7 +27976,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>87.41</v>
       </c>
@@ -28290,7 +28005,7 @@
         <v>26.158000000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>193.75</v>
       </c>
@@ -28319,7 +28034,7 @@
         <v>105.035</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>420.71</v>
       </c>
@@ -28348,7 +28063,7 @@
         <v>144.92599999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>156.9</v>
       </c>
@@ -28377,7 +28092,7 @@
         <v>28.103999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>1093</v>
       </c>
@@ -28406,7 +28121,7 @@
         <v>274.92899999999997</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>661.04</v>
       </c>
@@ -28435,7 +28150,7 @@
         <v>185.524</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>143.43</v>
       </c>
@@ -28464,7 +28179,7 @@
         <v>8.0830000000000002</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>190.8</v>
       </c>
@@ -28493,7 +28208,7 @@
         <v>218.21899999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>248.51</v>
       </c>
@@ -28522,7 +28237,7 @@
         <v>140.48699999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>26.53</v>
       </c>
@@ -28551,7 +28266,7 @@
         <v>2.5910000000000002</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>68.849999999999994</v>
       </c>
@@ -28580,7 +28295,7 @@
         <v>10.266999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>326.99</v>
       </c>
@@ -28609,7 +28324,7 @@
         <v>122.4075</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>8.4499999999999993</v>
       </c>
@@ -28638,7 +28353,7 @@
         <v>4.3019999999999996</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>76.17</v>
       </c>
@@ -28667,7 +28382,7 @@
         <v>78.224000000000004</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>67.14</v>
       </c>
@@ -28696,7 +28411,7 @@
         <v>89.600999999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>273.83999999999997</v>
       </c>
@@ -28725,7 +28440,7 @@
         <v>137.37299999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>86.29</v>
       </c>
@@ -28754,7 +28469,7 @@
         <v>1.294</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>112.7</v>
       </c>
@@ -28783,7 +28498,7 @@
         <v>40.281999999999996</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>429.98</v>
       </c>
@@ -28812,7 +28527,7 @@
         <v>262.267</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>797.71</v>
       </c>
@@ -28841,7 +28556,7 @@
         <v>447.26299999999998</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>242.36</v>
       </c>
@@ -28870,7 +28585,7 @@
         <v>193.78</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>136.47999999999999</v>
       </c>
@@ -28899,7 +28614,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>122.39</v>
       </c>
@@ -28928,7 +28643,7 @@
         <v>7.5510000000000002</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>243.84</v>
       </c>
@@ -28957,7 +28672,7 @@
         <v>40.909999999999997</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>124.47</v>
       </c>
@@ -28986,7 +28701,7 @@
         <v>35.576999999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>34.799999999999997</v>
       </c>
@@ -29015,7 +28730,7 @@
         <v>41.878999999999998</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>4398.66</v>
       </c>
@@ -29044,7 +28759,7 @@
         <v>780.8</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>47.71</v>
       </c>
@@ -29073,7 +28788,7 @@
         <v>12.73</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>77.760000000000005</v>
       </c>
@@ -29102,7 +28817,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>404.67</v>
       </c>
@@ -29131,7 +28846,7 @@
         <v>48.44</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>139.13</v>
       </c>
@@ -29160,7 +28875,7 @@
         <v>176.90049999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>38.57</v>
       </c>
@@ -29189,7 +28904,7 @@
         <v>6.4480000000000004</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>65.349999999999994</v>
       </c>
@@ -29218,7 +28933,7 @@
         <v>90.249499999999998</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>13.37</v>
       </c>
@@ -29247,7 +28962,7 @@
         <v>21.629000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>191.38</v>
       </c>
@@ -29276,7 +28991,7 @@
         <v>67.405000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>961.4</v>
       </c>
@@ -29305,7 +29020,7 @@
         <v>249.202</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>142.08000000000001</v>
       </c>
@@ -29334,7 +29049,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>116.17</v>
       </c>
@@ -29363,7 +29078,7 @@
         <v>46.587000000000003</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>170.87</v>
       </c>
@@ -29392,7 +29107,7 @@
         <v>164.22399999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>155.85</v>
       </c>
@@ -29421,7 +29136,7 @@
         <v>11.397500000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>273.02999999999997</v>
       </c>
@@ -29450,7 +29165,7 @@
         <v>134.89949999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>201.44</v>
       </c>
@@ -29479,7 +29194,7 @@
         <v>10.914</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>19.309999999999999</v>
       </c>
@@ -29508,7 +29223,7 @@
         <v>28.577999999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>36.619999999999997</v>
       </c>
@@ -29537,7 +29252,7 @@
         <v>24.619999</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>86.81</v>
       </c>
@@ -29566,7 +29281,7 @@
         <v>73.775999999999996</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>79.62</v>
       </c>
@@ -29595,7 +29310,7 @@
         <v>183.93600000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>22.51</v>
       </c>
@@ -29624,7 +29339,7 @@
         <v>10.996</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>6.81</v>
       </c>
@@ -29653,7 +29368,7 @@
         <v>3.2330000000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>324.54000000000002</v>
       </c>
@@ -29682,7 +29397,7 @@
         <v>200.43299999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>56.9</v>
       </c>
@@ -29711,7 +29426,7 @@
         <v>30.143501000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>20.16</v>
       </c>
@@ -29740,7 +29455,7 @@
         <v>18.885000000000002</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>153.94</v>
       </c>
@@ -29769,7 +29484,7 @@
         <v>54.124499999999998</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>13.66</v>
       </c>
@@ -29798,7 +29513,7 @@
         <v>15.25</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>157.63</v>
       </c>
@@ -29827,7 +29542,7 @@
         <v>31.315000000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>118.07</v>
       </c>
@@ -29856,7 +29571,7 @@
         <v>48.41</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>481.29</v>
       </c>
@@ -29885,7 +29600,7 @@
         <v>29.561</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>78.06</v>
       </c>
@@ -29914,7 +29629,7 @@
         <v>16.210999999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>228.81</v>
       </c>
@@ -29943,7 +29658,7 @@
         <v>7.9790000000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>225.76</v>
       </c>
@@ -29972,7 +29687,7 @@
         <v>21.854500000000002</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>138.5</v>
       </c>
@@ -30001,7 +29716,7 @@
         <v>39.128</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>540.69000000000005</v>
       </c>
@@ -30030,7 +29745,7 @@
         <v>224.352</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>153.38999999999999</v>
       </c>
@@ -30059,7 +29774,7 @@
         <v>14.5875</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>59.03</v>
       </c>
@@ -30088,7 +29803,7 @@
         <v>6.1470000000000002</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>22.17</v>
       </c>
@@ -30117,7 +29832,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>327.81</v>
       </c>
@@ -30146,7 +29861,7 @@
         <v>9.3629999999999995</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>912.58</v>
       </c>
@@ -30175,7 +29890,7 @@
         <v>274.97899999999998</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>545.59</v>
       </c>
@@ -30204,7 +29919,7 @@
         <v>344.94600000000003</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>53.88</v>
       </c>
@@ -30233,7 +29948,7 @@
         <v>19.135000000000002</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>170.88</v>
       </c>
@@ -30262,7 +29977,7 @@
         <v>7.1390000000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>174.54</v>
       </c>
@@ -30291,7 +30006,7 @@
         <v>92.772999999999996</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>308.72000000000003</v>
       </c>
@@ -30320,7 +30035,7 @@
         <v>40.417000000000002</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>140.83000000000001</v>
       </c>
@@ -30349,7 +30064,7 @@
         <v>228.40350000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>22.91</v>
       </c>
@@ -30378,7 +30093,7 @@
         <v>8.1329999999999991</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>96.37</v>
       </c>
@@ -30407,7 +30122,7 @@
         <v>14.189</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>446.28</v>
       </c>
@@ -30436,7 +30151,7 @@
         <v>219.07199</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>361.6</v>
       </c>
@@ -30465,7 +30180,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>73.53</v>
       </c>
@@ -30494,7 +30209,7 @@
         <v>14.18</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>117.54</v>
       </c>
@@ -30523,7 +30238,7 @@
         <v>85.372</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>165.09</v>
       </c>
@@ -30552,7 +30267,7 @@
         <v>67.1785</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>222.82</v>
       </c>
@@ -30581,7 +30296,7 @@
         <v>16.641999999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>456.97</v>
       </c>
@@ -30610,7 +30325,7 @@
         <v>50.18</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>46.12</v>
       </c>
@@ -30639,7 +30354,7 @@
         <v>20.353000000000002</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>11.34</v>
       </c>
@@ -30668,7 +30383,7 @@
         <v>12.329000000000001</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>261.94</v>
       </c>
@@ -30697,7 +30412,7 @@
         <v>14.068</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>183.23</v>
       </c>
@@ -30726,7 +30441,7 @@
         <v>124.51900000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>298.73</v>
       </c>
@@ -30755,7 +30470,7 @@
         <v>177.49051</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>101.8</v>
       </c>
@@ -30784,7 +30499,7 @@
         <v>4.032</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>680.84</v>
       </c>
@@ -30813,7 +30528,7 @@
         <v>84.218000000000004</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>1.63</v>
       </c>
@@ -30842,7 +30557,7 @@
         <v>1.7865</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>741.79</v>
       </c>
@@ -30871,7 +30586,7 @@
         <v>196.35499999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>815.36</v>
       </c>
@@ -30900,7 +30615,7 @@
         <v>203.56450000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>8.15</v>
       </c>
@@ -30929,7 +30644,7 @@
         <v>4.6099997000000004</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>186.31</v>
       </c>
@@ -30958,7 +30673,7 @@
         <v>35.262999999999998</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>102.37</v>
       </c>
@@ -30987,7 +30702,7 @@
         <v>64.659000000000006</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>1064.02</v>
       </c>
@@ -31016,7 +30731,7 @@
         <v>114.852</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>232.84</v>
       </c>
@@ -31045,7 +30760,7 @@
         <v>137.51599999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>7.93</v>
       </c>
@@ -31074,7 +30789,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>440.5</v>
       </c>
@@ -31103,7 +30818,7 @@
         <v>279.43900000000002</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>145.91</v>
       </c>
@@ -31132,7 +30847,7 @@
         <v>59.871499999999997</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>40.83</v>
       </c>
@@ -31161,7 +30876,7 @@
         <v>14.023</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>274.99</v>
       </c>
@@ -31190,7 +30905,7 @@
         <v>7.8129999999999997</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>48.05</v>
       </c>
@@ -31219,7 +30934,7 @@
         <v>66.608999999999995</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>18.84</v>
       </c>
@@ -31248,7 +30963,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>167.21</v>
       </c>
@@ -31277,7 +30992,7 @@
         <v>49.191498000000003</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>249.75</v>
       </c>
@@ -31306,7 +31021,7 @@
         <v>234.524</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>32.47</v>
       </c>
@@ -31335,7 +31050,7 @@
         <v>22.9025</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>95.66</v>
       </c>
@@ -31364,7 +31079,7 @@
         <v>5.23</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>72.569999999999993</v>
       </c>
@@ -31393,7 +31108,7 @@
         <v>43.99</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>1699.42</v>
       </c>
@@ -31422,7 +31137,7 @@
         <v>376.59699999999998</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>298.98</v>
       </c>
@@ -31451,7 +31166,7 @@
         <v>61.718001999999998</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>304.23</v>
       </c>
@@ -31480,7 +31195,7 @@
         <v>112.37350499999999</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>510.17</v>
       </c>
@@ -31509,7 +31224,7 @@
         <v>259.91649999999998</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>173.1</v>
       </c>
@@ -31538,7 +31253,7 @@
         <v>22.652999999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>237.26</v>
       </c>
@@ -31567,7 +31282,7 @@
         <v>104.6155</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>72.78</v>
       </c>
@@ -31596,7 +31311,7 @@
         <v>8.7530000000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>42.69</v>
       </c>
@@ -31625,7 +31340,7 @@
         <v>8.9220000000000006</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>345.99</v>
       </c>
@@ -31654,7 +31369,7 @@
         <v>129.66550000000001</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>50.32</v>
       </c>
@@ -31683,7 +31398,7 @@
         <v>4.9379999999999997</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>227.46</v>
       </c>
@@ -31712,7 +31427,7 @@
         <v>249.88900000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>120.87</v>
       </c>
@@ -31741,7 +31456,7 @@
         <v>50.021000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>985.37</v>
       </c>
@@ -31770,7 +31485,7 @@
         <v>623.31799999999998</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>72.900000000000006</v>
       </c>
@@ -31799,7 +31514,7 @@
         <v>18.920999999999999</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>495.37</v>
       </c>
@@ -31828,7 +31543,7 @@
         <v>354.56650000000002</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>172.96</v>
       </c>
@@ -31857,7 +31572,7 @@
         <v>82.961500000000001</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>197.8</v>
       </c>
@@ -31886,7 +31601,7 @@
         <v>56.04</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>99.34</v>
       </c>
@@ -31915,7 +31630,7 @@
         <v>15.000999999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>132.65</v>
       </c>
@@ -31944,7 +31659,7 @@
         <v>13.775</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>113.44</v>
       </c>
@@ -31973,7 +31688,7 @@
         <v>19.113499000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>166.3</v>
       </c>
@@ -32002,7 +31717,7 @@
         <v>24.558498</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>7.98</v>
       </c>
@@ -32031,7 +31746,7 @@
         <v>1.3089999999999999</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>59.4</v>
       </c>
@@ -32060,7 +31775,7 @@
         <v>1.718</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>102.4</v>
       </c>
@@ -32089,7 +31804,7 @@
         <v>35.725999999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>165.21</v>
       </c>
@@ -32118,7 +31833,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>913.2</v>
       </c>
@@ -32147,7 +31862,7 @@
         <v>400.59750000000003</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>44.58</v>
       </c>
@@ -32176,7 +31891,7 @@
         <v>33.308501999999997</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>146.97</v>
       </c>
@@ -32205,7 +31920,7 @@
         <v>107.313</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>15.7</v>
       </c>
@@ -32234,7 +31949,7 @@
         <v>2.645</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>12.87</v>
       </c>
@@ -32263,7 +31978,7 @@
         <v>16.355499999999999</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>698.01</v>
       </c>
@@ -32292,7 +32007,7 @@
         <v>176.67500000000001</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>598.41999999999996</v>
       </c>
@@ -32321,7 +32036,7 @@
         <v>189.48150000000001</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>179.98</v>
       </c>
@@ -32350,7 +32065,7 @@
         <v>49.308999999999997</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>202.54</v>
       </c>
@@ -32379,7 +32094,7 @@
         <v>27.318999999999999</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>197.07</v>
       </c>
@@ -32408,7 +32123,7 @@
         <v>84.27</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>131.51</v>
       </c>
@@ -32437,7 +32152,7 @@
         <v>50.652000000000001</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>243.63</v>
       </c>
@@ -32466,7 +32181,7 @@
         <v>90.921000000000006</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>105.98</v>
       </c>
@@ -32495,7 +32210,7 @@
         <v>50.896999999999998</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>40.83</v>
       </c>
@@ -32524,7 +32239,7 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>282.02999999999997</v>
       </c>
@@ -32553,7 +32268,7 @@
         <v>100.85850499999999</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>3300.8</v>
       </c>
@@ -32582,7 +32297,7 @@
         <v>318.5</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>584.70000000000005</v>
       </c>
@@ -32611,7 +32326,7 @@
         <v>203.9845</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>127.45</v>
       </c>
@@ -32640,7 +32355,7 @@
         <v>36.936</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>2276.0300000000002</v>
       </c>
@@ -32669,7 +32384,7 @@
         <v>611.51499999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>203.22</v>
       </c>
@@ -32698,7 +32413,7 @@
         <v>118.83199999999999</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>118.86</v>
       </c>
@@ -32727,7 +32442,7 @@
         <v>36.963999999999999</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>64.540000000000006</v>
       </c>
@@ -32756,7 +32471,7 @@
         <v>8.8559999999999999</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>247.81</v>
       </c>
@@ -32785,7 +32500,7 @@
         <v>72.636505</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>22.44</v>
       </c>
@@ -32814,7 +32529,7 @@
         <v>15.281499999999999</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>216.64</v>
       </c>
@@ -32843,7 +32558,7 @@
         <v>45.461502000000003</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>468.87</v>
       </c>
@@ -32872,7 +32587,7 @@
         <v>336.24547999999999</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>118.62</v>
       </c>
@@ -32901,7 +32616,7 @@
         <v>132.02700999999999</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>24.92</v>
       </c>
@@ -32930,7 +32645,7 @@
         <v>6.6375000000000002</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>185.16</v>
       </c>
@@ -32959,7 +32674,7 @@
         <v>23.213000000000001</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>24.58</v>
       </c>
@@ -32988,7 +32703,7 @@
         <v>31.367999999999999</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>1371.7</v>
       </c>
@@ -33017,7 +32732,7 @@
         <v>421.142</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>229.26</v>
       </c>
@@ -33046,7 +32761,7 @@
         <v>123.004</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>78.28</v>
       </c>
@@ -33075,7 +32790,7 @@
         <v>21.878</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>202.79</v>
       </c>
@@ -33104,7 +32819,7 @@
         <v>68.145499999999998</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>58.78</v>
       </c>
@@ -33133,7 +32848,7 @@
         <v>1.998</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>129.49</v>
       </c>
@@ -33162,7 +32877,7 @@
         <v>70.138000000000005</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>518.88</v>
       </c>
@@ -33191,7 +32906,7 @@
         <v>120.52800000000001</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>319.3</v>
       </c>
@@ -33220,7 +32935,7 @@
         <v>301.38749999999999</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>233.6</v>
       </c>
@@ -33249,7 +32964,7 @@
         <v>10.415501000000001</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>62.5</v>
       </c>
@@ -33278,7 +32993,7 @@
         <v>23.456</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>131.05000000000001</v>
       </c>
@@ -33307,7 +33022,7 @@
         <v>78.409000000000006</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>56.46</v>
       </c>
@@ -33336,7 +33051,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>1626.71</v>
       </c>
@@ -33365,7 +33080,7 @@
         <v>77.623999999999995</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>35.42</v>
       </c>
@@ -33394,7 +33109,7 @@
         <v>13.49</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>148.44999999999999</v>
       </c>
@@ -33423,7 +33138,7 @@
         <v>58.692999999999998</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>173.32</v>
       </c>
@@ -33452,7 +33167,7 @@
         <v>119.551</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>12.06</v>
       </c>
@@ -33481,7 +33196,7 @@
         <v>16.309999999999999</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>377.97</v>
       </c>
@@ -33510,7 +33225,7 @@
         <v>231.32300000000001</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>243.04</v>
       </c>
@@ -33539,7 +33254,7 @@
         <v>122.902</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>429.2</v>
       </c>
@@ -33568,7 +33283,7 @@
         <v>131.32400000000001</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>3480.01</v>
       </c>
@@ -33597,7 +33312,7 @@
         <v>148.0145</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>15.07</v>
       </c>
@@ -33626,7 +33341,7 @@
         <v>5.2244997</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>46.42</v>
       </c>
@@ -33655,7 +33370,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>4016.42</v>
       </c>
@@ -33684,7 +33399,7 @@
         <v>530.02300000000002</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>333.43</v>
       </c>
@@ -33713,7 +33428,7 @@
         <v>134.78749999999999</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>103.14</v>
       </c>
@@ -33742,7 +33457,7 @@
         <v>34.470999999999997</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>3345.74</v>
       </c>
@@ -33771,7 +33486,7 @@
         <v>806.71</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>447.94</v>
       </c>
@@ -33800,7 +33515,7 @@
         <v>12.92</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>84.98</v>
       </c>
@@ -33829,7 +33544,7 @@
         <v>28.297000000000001</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>64.11</v>
       </c>
@@ -33858,7 +33573,7 @@
         <v>2.4820000000000002</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>126.36</v>
       </c>
@@ -33887,7 +33602,7 @@
         <v>34.346499999999999</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>18.77</v>
       </c>
@@ -33916,7 +33631,7 @@
         <v>7.4969996999999999</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>223.1</v>
       </c>
@@ -33945,7 +33660,7 @@
         <v>178.001</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>283.38</v>
       </c>
@@ -33974,7 +33689,7 @@
         <v>217.1995</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>107.23</v>
       </c>
@@ -34003,7 +33718,7 @@
         <v>5.1224999999999996</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>53.17</v>
       </c>
@@ -34032,7 +33747,7 @@
         <v>23.207000000000001</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>37.380000000000003</v>
       </c>
@@ -34061,7 +33776,7 @@
         <v>59.964500000000001</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>325.70999999999998</v>
       </c>
@@ -34090,7 +33805,7 @@
         <v>45.976500000000001</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>195.45</v>
       </c>
@@ -34119,7 +33834,7 @@
         <v>21.744</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>51.56</v>
       </c>
@@ -34148,7 +33863,7 @@
         <v>40.380997000000001</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>331.64</v>
       </c>
@@ -34177,7 +33892,7 @@
         <v>342.05700000000002</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>136.34</v>
       </c>
@@ -34206,7 +33921,7 @@
         <v>27.997499999999999</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>1049.6099999999999</v>
       </c>
@@ -34235,7 +33950,7 @@
         <v>440.64</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>792.65</v>
       </c>
@@ -34264,7 +33979,7 @@
         <v>112.720505</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>10.94</v>
       </c>
@@ -34293,7 +34008,7 @@
         <v>2.6455000000000002</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>172.17</v>
       </c>
@@ -34322,7 +34037,7 @@
         <v>114.795</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>341.76</v>
       </c>
@@ -34351,7 +34066,7 @@
         <v>378.99547999999999</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>11.46</v>
       </c>
@@ -34380,7 +34095,7 @@
         <v>15.09</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>88.59</v>
       </c>
@@ -34409,7 +34124,7 @@
         <v>29.739000000000001</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>1090.83</v>
       </c>
@@ -34438,7 +34153,7 @@
         <v>378.803</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>502.24</v>
       </c>
@@ -34467,7 +34182,7 @@
         <v>117.71</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>173.94</v>
       </c>
@@ -34496,7 +34211,7 @@
         <v>51.664999999999999</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>55.97</v>
       </c>
@@ -34525,7 +34240,7 @@
         <v>77.673000000000002</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>621.52</v>
       </c>
@@ -34554,7 +34269,7 @@
         <v>46.449997000000003</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>1594.22</v>
       </c>
@@ -34583,7 +34298,7 @@
         <v>80.410499999999999</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>184.23</v>
       </c>
@@ -34612,7 +34327,7 @@
         <v>48.267000000000003</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>79.400000000000006</v>
       </c>
@@ -34641,7 +34356,7 @@
         <v>45.324997000000003</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>85.63</v>
       </c>
@@ -34670,7 +34385,7 @@
         <v>8.1345004999999997</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>123.5</v>
       </c>
@@ -34699,7 +34414,7 @@
         <v>6.5519999999999996</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>58.16</v>
       </c>
@@ -34728,7 +34443,7 @@
         <v>4.6280000000000001</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>182.48</v>
       </c>
@@ -34757,7 +34472,7 @@
         <v>32.241999999999997</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>92.74</v>
       </c>
@@ -34786,7 +34501,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>1380.04</v>
       </c>
@@ -34815,7 +34530,7 @@
         <v>436.80900000000003</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>84.62</v>
       </c>
@@ -34844,7 +34559,7 @@
         <v>5.5940000000000003</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>783.72</v>
       </c>
@@ -34873,7 +34588,7 @@
         <v>250.24199999999999</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>68</v>
       </c>
@@ -34902,7 +34617,7 @@
         <v>3.7149999999999999</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>63.78</v>
       </c>
@@ -34931,7 +34646,7 @@
         <v>8.5020000000000007</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>232.41</v>
       </c>
@@ -34960,7 +34675,7 @@
         <v>80.668999999999997</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>75.849999999999994</v>
       </c>
@@ -34989,7 +34704,7 @@
         <v>2.8889999999999998</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>897.26</v>
       </c>
@@ -35018,7 +34733,7 @@
         <v>215.506</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>510.02</v>
       </c>
@@ -35047,7 +34762,7 @@
         <v>441.99401999999998</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>579.08000000000004</v>
       </c>
@@ -35076,7 +34791,7 @@
         <v>248.94499999999999</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>778.96</v>
       </c>
@@ -35105,7 +34820,7 @@
         <v>262.16998000000001</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>278.05</v>
       </c>
@@ -35134,7 +34849,7 @@
         <v>42.098503000000001</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>444.8</v>
       </c>
@@ -35163,7 +34878,7 @@
         <v>129.25200000000001</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>50.97</v>
       </c>
@@ -35192,7 +34907,7 @@
         <v>13.606501</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>1269.46</v>
       </c>
@@ -35221,7 +34936,7 @@
         <v>136.24600000000001</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>38.590000000000003</v>
       </c>
@@ -35250,7 +34965,7 @@
         <v>60.363999999999997</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>2852.4</v>
       </c>
@@ -35279,7 +34994,7 @@
         <v>472.09300000000002</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>36.700000000000003</v>
       </c>
@@ -35308,7 +35023,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>263.63</v>
       </c>
@@ -35337,7 +35052,7 @@
         <v>72.632499999999993</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>137.79</v>
       </c>
@@ -35366,7 +35081,7 @@
         <v>36.200499999999998</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>108.14</v>
       </c>
@@ -35395,7 +35110,7 @@
         <v>1.9870000000000001</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>52.44</v>
       </c>
@@ -35424,7 +35139,7 @@
         <v>16.405999999999999</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>103.32</v>
       </c>
@@ -35453,7 +35168,7 @@
         <v>3.6589999999999998</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>116.03</v>
       </c>
@@ -35482,7 +35197,7 @@
         <v>38.503</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>140.09</v>
       </c>
@@ -35511,7 +35226,7 @@
         <v>8.1289999999999996</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>366.25</v>
       </c>
@@ -35540,7 +35255,7 @@
         <v>226.80600000000001</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>414.39</v>
       </c>
@@ -35569,7 +35284,7 @@
         <v>98.093999999999994</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>832.97</v>
       </c>
@@ -35598,7 +35313,7 @@
         <v>229.11750000000001</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>1.74</v>
       </c>
@@ -35627,7 +35342,7 @@
         <v>1.2244999999999999</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>86.01</v>
       </c>
@@ -35656,7 +35371,7 @@
         <v>117.965</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>228.88</v>
       </c>
@@ -35685,7 +35400,7 @@
         <v>71.491</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>89.03</v>
       </c>
@@ -35714,7 +35429,7 @@
         <v>11.053000000000001</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>162.76</v>
       </c>
@@ -35743,7 +35458,7 @@
         <v>30.382000000000001</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>94.89</v>
       </c>
@@ -35772,7 +35487,7 @@
         <v>3.4209999999999998</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>1124.5899999999999</v>
       </c>
@@ -35801,7 +35516,7 @@
         <v>138.78899999999999</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>60.07</v>
       </c>
@@ -35830,7 +35545,7 @@
         <v>24.732500000000002</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>26.83</v>
       </c>
@@ -35859,7 +35574,7 @@
         <v>3.9580001999999999</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>759.03</v>
       </c>
@@ -35888,7 +35603,7 @@
         <v>233.27600000000001</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>1745.88</v>
       </c>
@@ -35917,7 +35632,7 @@
         <v>223.91499999999999</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>98.37</v>
       </c>
@@ -35946,7 +35661,7 @@
         <v>37.485999999999997</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>88.18</v>
       </c>
@@ -35975,7 +35690,7 @@
         <v>80.015000000000001</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>4.32</v>
       </c>
@@ -36004,7 +35719,7 @@
         <v>1.9059999999999999</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>205.67</v>
       </c>
@@ -36033,7 +35748,7 @@
         <v>15.948</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>8.69</v>
       </c>
@@ -36062,7 +35777,7 @@
         <v>13.829000000000001</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>365.9</v>
       </c>
@@ -36091,7 +35806,7 @@
         <v>44.366</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>57.5</v>
       </c>
@@ -36120,7 +35835,7 @@
         <v>30.934999999999999</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>23.33</v>
       </c>
@@ -36149,7 +35864,7 @@
         <v>3.3610000000000002</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>78.099999999999994</v>
       </c>
@@ -36178,7 +35893,7 @@
         <v>6.5819999999999999</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>885.11</v>
       </c>
@@ -36207,7 +35922,7 @@
         <v>45.145499999999998</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>135.29</v>
       </c>
@@ -36236,7 +35951,7 @@
         <v>48.737000000000002</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>27.58</v>
       </c>
@@ -36265,7 +35980,7 @@
         <v>6.7590000000000003</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>100.33</v>
       </c>
@@ -36294,7 +36009,7 @@
         <v>63.715004</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>401.59</v>
       </c>
@@ -36323,7 +36038,7 @@
         <v>101.336</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>608.13</v>
       </c>
@@ -36352,7 +36067,7 @@
         <v>169.46199999999999</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>664.23</v>
       </c>
@@ -36381,7 +36096,7 @@
         <v>230.04499999999999</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>1008.94</v>
       </c>
@@ -36410,7 +36125,7 @@
         <v>145.5</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>65.59</v>
       </c>
@@ -36439,7 +36154,7 @@
         <v>53.747999999999998</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>20.170000000000002</v>
       </c>
@@ -36468,7 +36183,7 @@
         <v>0.40600000000000003</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>44.59</v>
       </c>
@@ -36497,7 +36212,7 @@
         <v>16.004999999999999</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>27.18</v>
       </c>
@@ -36526,7 +36241,7 @@
         <v>50.404000000000003</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>212.19</v>
       </c>
@@ -36555,7 +36270,7 @@
         <v>148.54300000000001</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>263.01</v>
       </c>
@@ -36584,7 +36299,7 @@
         <v>163.29300000000001</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>155.38999999999999</v>
       </c>
@@ -36613,7 +36328,7 @@
         <v>40.298000000000002</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>687.29</v>
       </c>
@@ -36642,7 +36357,7 @@
         <v>117.477</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>60.24</v>
       </c>
@@ -36671,7 +36386,7 @@
         <v>7.3114996000000003</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>42.1</v>
       </c>
@@ -36700,7 +36415,7 @@
         <v>9.52</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>167.21</v>
       </c>
@@ -36729,7 +36444,7 @@
         <v>100.777</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>34.76</v>
       </c>
@@ -36758,7 +36473,7 @@
         <v>9.5229999999999997</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>235.9</v>
       </c>
@@ -36787,7 +36502,7 @@
         <v>12.016</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>126.98</v>
       </c>
@@ -36816,7 +36531,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>2645.6</v>
       </c>
@@ -36845,7 +36560,7 @@
         <v>420.97050000000002</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>149.88999999999999</v>
       </c>
@@ -36874,7 +36589,7 @@
         <v>49.783000000000001</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>66.84</v>
       </c>
@@ -36903,7 +36618,7 @@
         <v>83.631</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>43.99</v>
       </c>
@@ -36932,7 +36647,7 @@
         <v>20.045999999999999</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>1894.26</v>
       </c>
@@ -36961,7 +36676,7 @@
         <v>387.97552000000002</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
         <v>414.4</v>
       </c>
@@ -36990,7 +36705,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>105.29</v>
       </c>
@@ -37019,7 +36734,7 @@
         <v>57.872</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>77.569999999999993</v>
       </c>
@@ -37048,7 +36763,7 @@
         <v>3.4775</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
         <v>288.52999999999997</v>
       </c>
@@ -37077,7 +36792,7 @@
         <v>104.8665</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
         <v>335.39</v>
       </c>
@@ -37106,7 +36821,7 @@
         <v>195.072</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
         <v>474.08</v>
       </c>
@@ -37135,7 +36850,7 @@
         <v>140.62851000000001</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>101.64</v>
       </c>
@@ -37164,7 +36879,7 @@
         <v>64.994510000000005</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>697.46</v>
       </c>
@@ -37193,7 +36908,7 @@
         <v>300.53199999999998</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>387.74</v>
       </c>
@@ -37222,7 +36937,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>30.36</v>
       </c>
@@ -37251,7 +36966,7 @@
         <v>13.505000000000001</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>121.64</v>
       </c>
@@ -37280,7 +36995,7 @@
         <v>63.484499999999997</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>95.57</v>
       </c>
@@ -37309,7 +37024,7 @@
         <v>63.975000000000001</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>574.66</v>
       </c>
@@ -37338,7 +37053,7 @@
         <v>191.494</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>85.83</v>
       </c>
@@ -37367,7 +37082,7 @@
         <v>3.6160000000000001</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>517.55999999999995</v>
       </c>
@@ -37396,7 +37111,7 @@
         <v>135.8425</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
         <v>74.34</v>
       </c>
@@ -37425,7 +37140,7 @@
         <v>1.3140000000000001</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
         <v>147.47</v>
       </c>
@@ -37454,7 +37169,7 @@
         <v>3.6789999999999998</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>6.52</v>
       </c>
@@ -37483,7 +37198,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>36.97</v>
       </c>
@@ -37512,7 +37227,7 @@
         <v>26.395</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>248.21</v>
       </c>
@@ -37541,7 +37256,7 @@
         <v>10.450001</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>634.78</v>
       </c>
@@ -37570,7 +37285,7 @@
         <v>82.895004</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>363.76</v>
       </c>
@@ -37599,7 +37314,7 @@
         <v>85.686999999999998</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>57.67</v>
       </c>
@@ -37628,7 +37343,7 @@
         <v>13.053000000000001</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>128.41999999999999</v>
       </c>
@@ -37657,7 +37372,7 @@
         <v>5.1559999999999997</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>158.22</v>
       </c>
@@ -37686,7 +37401,7 @@
         <v>66.093999999999994</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
         <v>19.39</v>
       </c>
@@ -37715,7 +37430,7 @@
         <v>10.7745</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
         <v>1459.55</v>
       </c>
@@ -37744,7 +37459,7 @@
         <v>46.46</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>847.7</v>
       </c>
@@ -37773,7 +37488,7 @@
         <v>375.69499999999999</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>27.75</v>
       </c>
@@ -37802,7 +37517,7 @@
         <v>10.268000000000001</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>183.49</v>
       </c>
@@ -37831,7 +37546,7 @@
         <v>52.66</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>216.48</v>
       </c>
@@ -37860,7 +37575,7 @@
         <v>61.366500000000002</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>105.31</v>
       </c>
@@ -37889,7 +37604,7 @@
         <v>198.52799999999999</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
         <v>102.89</v>
       </c>
@@ -37918,7 +37633,7 @@
         <v>31.67</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
         <v>313.58999999999997</v>
       </c>
@@ -37947,7 +37662,7 @@
         <v>106.91800000000001</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <v>964.93</v>
       </c>
@@ -37976,7 +37691,7 @@
         <v>118.65949999999999</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
         <v>109.57</v>
       </c>
@@ -38005,7 +37720,7 @@
         <v>13.349501</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
         <v>219.21</v>
       </c>
@@ -38034,7 +37749,7 @@
         <v>266.95398</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
         <v>138.63</v>
       </c>
@@ -38063,7 +37778,7 @@
         <v>80.977999999999994</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
         <v>382.69</v>
       </c>
@@ -38092,7 +37807,7 @@
         <v>76.128</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
         <v>48.51</v>
       </c>
@@ -38121,7 +37836,7 @@
         <v>4.3860000000000001</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
         <v>397.92</v>
       </c>
@@ -38150,7 +37865,7 @@
         <v>309.03800000000001</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
         <v>81.599999999999994</v>
       </c>
@@ -38179,7 +37894,7 @@
         <v>8.4804999999999993</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A457" s="2">
         <v>355.07</v>
       </c>
@@ -38208,7 +37923,7 @@
         <v>150.8005</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
         <v>9.85</v>
       </c>
@@ -38237,7 +37952,7 @@
         <v>4.2619999999999996</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
         <v>52.85</v>
       </c>
@@ -38266,7 +37981,7 @@
         <v>11.084</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
         <v>578.21</v>
       </c>
@@ -38295,7 +38010,7 @@
         <v>139.673</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
         <v>199.42</v>
       </c>
@@ -38324,7 +38039,7 @@
         <v>16.6035</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A462" s="2">
         <v>33.76</v>
       </c>
@@ -38353,7 +38068,7 @@
         <v>6.109</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A463" s="2">
         <v>272.2</v>
       </c>
@@ -38382,7 +38097,7 @@
         <v>94.450500000000005</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A464" s="2">
         <v>510.9</v>
       </c>
@@ -38411,7 +38126,7 @@
         <v>238.21350000000001</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A465" s="2">
         <v>117.12</v>
       </c>
@@ -38440,7 +38155,7 @@
         <v>90.531999999999996</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
         <v>152.4</v>
       </c>
@@ -38469,7 +38184,7 @@
         <v>16.5275</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
         <v>236.84</v>
       </c>
@@ -38498,7 +38213,7 @@
         <v>190.69900000000001</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
         <v>155.76</v>
       </c>
@@ -38527,7 +38242,7 @@
         <v>70.778999999999996</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
         <v>196.18</v>
       </c>
@@ -38556,7 +38271,7 @@
         <v>5.0730000000000004</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
         <v>1012.97</v>
       </c>
@@ -38585,7 +38300,7 @@
         <v>367.601</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A471" s="2">
         <v>417.01</v>
       </c>
@@ -38614,7 +38329,7 @@
         <v>38.588000000000001</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A472" s="2">
         <v>559.72</v>
       </c>
@@ -38643,7 +38358,7 @@
         <v>18.561</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
         <v>50.04</v>
       </c>
@@ -38672,7 +38387,7 @@
         <v>2.8574999999999999</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
         <v>183</v>
       </c>
@@ -38701,7 +38416,7 @@
         <v>85.853499999999997</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A475" s="2">
         <v>185.66</v>
       </c>
@@ -38730,7 +38445,7 @@
         <v>72.44</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
         <v>43.43</v>
       </c>
@@ -38759,7 +38474,7 @@
         <v>53.942</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A477" s="2">
         <v>319.94</v>
       </c>
@@ -38788,7 +38503,7 @@
         <v>106.756</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
         <v>552.57000000000005</v>
       </c>
@@ -38817,7 +38532,7 @@
         <v>169.05699999999999</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A479" s="2">
         <v>118.05</v>
       </c>
@@ -38846,7 +38561,7 @@
         <v>21.405000000000001</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
         <v>11.76</v>
       </c>
@@ -38875,7 +38590,7 @@
         <v>1.234</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A481" s="2">
         <v>20.38</v>
       </c>
@@ -38904,7 +38619,7 @@
         <v>7.7565001999999996</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A482" s="2">
         <v>198.07</v>
       </c>
@@ -38933,7 +38648,7 @@
         <v>111.322</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A483" s="2">
         <v>125.92</v>
       </c>
@@ -38962,7 +38677,7 @@
         <v>26.779499999999999</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A484" s="2">
         <v>92.61</v>
       </c>
@@ -38991,7 +38706,7 @@
         <v>17.978999999999999</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A485" s="2">
         <v>883.12</v>
       </c>
@@ -39020,7 +38735,7 @@
         <v>119.09399999999999</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A486" s="2">
         <v>203.65</v>
       </c>
@@ -39049,7 +38764,7 @@
         <v>43.722999999999999</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A487" s="2">
         <v>77.73</v>
       </c>
@@ -39078,7 +38793,7 @@
         <v>16.774000000000001</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A488" s="2">
         <v>194.15</v>
       </c>
@@ -39107,7 +38822,7 @@
         <v>43.54</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A489" s="2">
         <v>1283.4000000000001</v>
       </c>
@@ -39136,7 +38851,7 @@
         <v>529.327</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A490" s="2">
         <v>89.42</v>
       </c>
@@ -39165,7 +38880,7 @@
         <v>101.89</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A491" s="2">
         <v>148.69999999999999</v>
       </c>
@@ -39194,7 +38909,7 @@
         <v>15.362</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A492" s="2">
         <v>307.14</v>
       </c>
@@ -39223,7 +38938,7 @@
         <v>57.802999999999997</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A493" s="2">
         <v>140.38</v>
       </c>
@@ -39252,7 +38967,7 @@
         <v>13.836</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494" s="2">
         <v>938.48</v>
       </c>
@@ -39281,7 +38996,7 @@
         <v>247.73849999999999</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A495" s="2">
         <v>133.52000000000001</v>
       </c>
@@ -39310,7 +39025,7 @@
         <v>36.856499999999997</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A496" s="2">
         <v>188.05</v>
       </c>
@@ -39339,7 +39054,7 @@
         <v>10.653</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A497" s="2">
         <v>117.35</v>
       </c>
@@ -39368,7 +39083,7 @@
         <v>27.434000000000001</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A498" s="2">
         <v>15.85</v>
       </c>
@@ -39397,7 +39112,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A499" s="2">
         <v>801.65</v>
       </c>
@@ -39426,7 +39141,7 @@
         <v>62.661000000000001</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A500" s="2">
         <v>139.27000000000001</v>
       </c>
@@ -39455,7 +39170,7 @@
         <v>71.037999999999997</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A501" s="2">
         <v>78.540000000000006</v>
       </c>
@@ -39484,7 +39199,7 @@
         <v>53.15</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A502" s="2">
         <v>32.340000000000003</v>
       </c>
@@ -39513,7 +39228,7 @@
         <v>12.811</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A503" s="2">
         <v>109.39</v>
       </c>
@@ -39542,7 +39257,7 @@
         <v>69.832499999999996</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A504" s="2">
         <v>149.24</v>
       </c>
@@ -39571,7 +39286,7 @@
         <v>59.095999999999997</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A505" s="2">
         <v>322.97000000000003</v>
       </c>
@@ -39600,7 +39315,7 @@
         <v>237.30600000000001</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A506" s="2">
         <v>1149.07</v>
       </c>
@@ -39629,7 +39344,7 @@
         <v>354.83199999999999</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A507" s="2">
         <v>74.13</v>
       </c>
@@ -39658,7 +39373,7 @@
         <v>25.055499999999999</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A508" s="2">
         <v>55.72</v>
       </c>
@@ -39687,7 +39402,7 @@
         <v>3.0840000000000001</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A509" s="2">
         <v>455.1</v>
       </c>
@@ -39716,7 +39431,7 @@
         <v>201.80699999999999</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A510" s="2">
         <v>134.5</v>
       </c>
@@ -39745,7 +39460,7 @@
         <v>27.875</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A511" s="2">
         <v>25.62</v>
       </c>
@@ -39774,7 +39489,7 @@
         <v>3.661</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A512" s="2">
         <v>59.98</v>
       </c>
@@ -39803,7 +39518,7 @@
         <v>26.132000000000001</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A513" s="2">
         <v>16.05</v>
       </c>
@@ -39832,7 +39547,7 @@
         <v>0.45900000000000002</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A514" s="2">
         <v>148.28</v>
       </c>
@@ -39861,7 +39576,7 @@
         <v>19.550498999999999</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A515" s="2">
         <v>62.9</v>
       </c>
@@ -39890,7 +39605,7 @@
         <v>3.601</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A516" s="2">
         <v>99.67</v>
       </c>
@@ -39919,7 +39634,7 @@
         <v>21.602001000000001</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A517" s="2">
         <v>173.41</v>
       </c>
@@ -39948,7 +39663,7 @@
         <v>117.7115</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A518" s="2">
         <v>1037.3599999999999</v>
       </c>
@@ -39977,7 +39692,7 @@
         <v>38.393999999999998</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A519" s="2">
         <v>63.26</v>
       </c>
@@ -40006,7 +39721,7 @@
         <v>36.569499999999998</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A520" s="2">
         <v>33.97</v>
       </c>
@@ -40035,7 +39750,7 @@
         <v>34.576000000000001</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A521" s="2">
         <v>263.74</v>
       </c>
@@ -40064,7 +39779,7 @@
         <v>57.006999999999998</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A522" s="2">
         <v>326.55</v>
       </c>
@@ -40093,7 +39808,7 @@
         <v>11.106</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A523" s="2">
         <v>1260.92</v>
       </c>
@@ -40122,7 +39837,7 @@
         <v>165.85400000000001</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A524" s="2">
         <v>50.13</v>
       </c>
@@ -40151,7 +39866,7 @@
         <v>5.8804999999999996</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A525" s="2">
         <v>58.81</v>
       </c>
@@ -40180,7 +39895,7 @@
         <v>64.632999999999996</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A526" s="2">
         <v>31.84</v>
       </c>
@@ -40209,7 +39924,7 @@
         <v>43.18</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A527" s="2">
         <v>12.06</v>
       </c>
@@ -40238,7 +39953,7 @@
         <v>0.86099999999999999</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A528" s="2">
         <v>502.73</v>
       </c>
@@ -40267,7 +39982,7 @@
         <v>241.07499999999999</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A529" s="2">
         <v>130.44999999999999</v>
       </c>
@@ -40296,7 +40011,7 @@
         <v>38.989502000000002</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A530" s="2">
         <v>345.2</v>
       </c>
@@ -40325,7 +40040,7 @@
         <v>134.54949999999999</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A531" s="2">
         <v>367.59</v>
       </c>
@@ -40354,7 +40069,7 @@
         <v>200.49250000000001</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A532" s="2">
         <v>397.97</v>
       </c>
@@ -40383,7 +40098,7 @@
         <v>87.253</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A533" s="2">
         <v>445.22</v>
       </c>
@@ -40412,7 +40127,7 @@
         <v>267.20999999999998</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A534" s="2">
         <v>920.16</v>
       </c>
@@ -40441,7 +40156,7 @@
         <v>263.27600000000001</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A535" s="2">
         <v>377.16</v>
       </c>
@@ -40470,7 +40185,7 @@
         <v>123.48550400000001</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A536" s="2">
         <v>407.17</v>
       </c>
@@ -40499,7 +40214,7 @@
         <v>179.0455</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A537" s="2">
         <v>1844.19</v>
       </c>
@@ -40528,7 +40243,7 @@
         <v>574.84249999999997</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A538" s="2">
         <v>3211.11</v>
       </c>
@@ -40557,7 +40272,7 @@
         <v>839.28300000000002</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A539" s="2">
         <v>164.46</v>
       </c>
@@ -40583,7 +40298,7 @@
         <v>114.10899999999999</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A540" s="2">
         <v>291.89999999999998</v>
       </c>
@@ -40612,7 +40327,7 @@
         <v>180.22300000000001</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A541" s="2">
         <v>64.569999999999993</v>
       </c>
@@ -40641,7 +40356,7 @@
         <v>60.718000000000004</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A542" s="2">
         <v>708</v>
       </c>
@@ -40670,7 +40385,7 @@
         <v>37.003999999999998</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A543" s="2">
         <v>258.42</v>
       </c>
@@ -40699,7 +40414,7 @@
         <v>100.477</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A544" s="2">
         <v>74.22</v>
       </c>
@@ -40728,7 +40443,7 @@
         <v>11.4345</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A545" s="2">
         <v>219.24</v>
       </c>
@@ -40757,7 +40472,7 @@
         <v>117.687</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A546" s="2">
         <v>136.69</v>
       </c>
@@ -40786,7 +40501,7 @@
         <v>11.798</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A547" s="2">
         <v>415.59</v>
       </c>
@@ -40815,7 +40530,7 @@
         <v>248.084</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A548" s="2">
         <v>749.9</v>
       </c>
@@ -40844,7 +40559,7 @@
         <v>469.69900000000001</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A549" s="2">
         <v>56.18</v>
       </c>
@@ -40873,7 +40588,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A550" s="2">
         <v>120.54</v>
       </c>
@@ -40902,7 +40617,7 @@
         <v>20.460999999999999</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A551" s="2">
         <v>84.62</v>
       </c>
@@ -40931,7 +40646,7 @@
         <v>9.6310000000000002</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A552" s="2">
         <v>283.47000000000003</v>
       </c>
@@ -40960,7 +40675,7 @@
         <v>67.481999999999999</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A553" s="2">
         <v>54.47</v>
       </c>
@@ -40989,7 +40704,7 @@
         <v>36.683</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A554" s="2">
         <v>571.36</v>
       </c>
@@ -41018,7 +40733,7 @@
         <v>27.452000000000002</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A555" s="2">
         <v>305.19</v>
       </c>
@@ -41047,7 +40762,7 @@
         <v>36.405000000000001</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A556" s="2">
         <v>28.99</v>
       </c>
@@ -41076,7 +40791,7 @@
         <v>15.933999999999999</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A557" s="2">
         <v>170.94</v>
       </c>
@@ -41105,7 +40820,7 @@
         <v>48.521999999999998</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A558" s="2">
         <v>48.51</v>
       </c>
@@ -41134,7 +40849,7 @@
         <v>1.129</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A559" s="2">
         <v>25.26</v>
       </c>
@@ -41163,7 +40878,7 @@
         <v>9.5649999999999995</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A560" s="2">
         <v>74.95</v>
       </c>
@@ -41192,7 +40907,7 @@
         <v>7.1260000000000003</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A561" s="2">
         <v>53.51</v>
       </c>
@@ -41221,7 +40936,7 @@
         <v>1.0760000000000001</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A562" s="2">
         <v>181.9</v>
       </c>
@@ -41250,7 +40965,7 @@
         <v>81.849000000000004</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A563" s="2">
         <v>92.96</v>
       </c>
@@ -41279,7 +40994,7 @@
         <v>29.826000000000001</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A564" s="2">
         <v>2026.73</v>
       </c>
@@ -41308,7 +41023,7 @@
         <v>285.06599999999997</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A565" s="2">
         <v>111.18</v>
       </c>
@@ -41337,7 +41052,7 @@
         <v>96.308000000000007</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A566" s="2">
         <v>497.61</v>
       </c>
@@ -41366,7 +41081,7 @@
         <v>335.65949999999998</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A567" s="2">
         <v>618.21</v>
       </c>
@@ -41395,7 +41110,7 @@
         <v>248.095</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A568" s="2">
         <v>182.4</v>
       </c>
@@ -41424,7 +41139,7 @@
         <v>31.622499999999999</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A569" s="2">
         <v>258.14</v>
       </c>
@@ -41453,7 +41168,7 @@
         <v>225.57400000000001</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A570" s="2">
         <v>202.93</v>
       </c>
@@ -41482,7 +41197,7 @@
         <v>61.86</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A571" s="2">
         <v>304.95999999999998</v>
       </c>
@@ -41511,7 +41226,7 @@
         <v>95.83</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A572" s="2">
         <v>184.74</v>
       </c>
@@ -41540,7 +41255,7 @@
         <v>159.26349999999999</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A573" s="2">
         <v>102.42</v>
       </c>
@@ -41569,7 +41284,7 @@
         <v>15.227</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A574" s="2">
         <v>21.87</v>
       </c>
@@ -41598,7 +41313,7 @@
         <v>14.563499</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A575" s="2">
         <v>132.96</v>
       </c>
@@ -41627,7 +41342,7 @@
         <v>12.919</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A576" s="2">
         <v>209.94</v>
       </c>
@@ -41656,7 +41371,7 @@
         <v>70.447000000000003</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A577" s="2">
         <v>4586.97</v>
       </c>
@@ -41685,7 +41400,7 @@
         <v>992.846</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A578" s="2">
         <v>243.54</v>
       </c>
@@ -41714,7 +41429,7 @@
         <v>59.698999999999998</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A579" s="2">
         <v>204.71</v>
       </c>
@@ -41743,7 +41458,7 @@
         <v>36.558</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A580" s="2">
         <v>98.48</v>
       </c>
@@ -41772,7 +41487,7 @@
         <v>147.55551</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A581" s="2">
         <v>1569.29</v>
       </c>
@@ -41801,7 +41516,7 @@
         <v>167.22300000000001</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A582" s="2">
         <v>427.14</v>
       </c>
@@ -41830,7 +41545,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A583" s="2">
         <v>193.51</v>
       </c>
@@ -41859,7 +41574,7 @@
         <v>11.2225</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A584" s="2">
         <v>240.98</v>
       </c>
@@ -41888,7 +41603,7 @@
         <v>78.168000000000006</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A585" s="2">
         <v>29.38</v>
       </c>
@@ -41917,7 +41632,7 @@
         <v>22.4605</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A586" s="2">
         <v>33.619999999999997</v>
       </c>
@@ -41946,7 +41661,7 @@
         <v>5.3075000000000001</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A587" s="2">
         <v>88.25</v>
       </c>
@@ -41975,7 +41690,7 @@
         <v>12.157</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A588" s="2">
         <v>79.86</v>
       </c>
@@ -42001,7 +41716,7 @@
         <v>19.489000000000001</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A589" s="2">
         <v>205.45</v>
       </c>
@@ -42030,7 +41745,7 @@
         <v>51.534999999999997</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A590" s="2">
         <v>72.12</v>
       </c>
@@ -42059,7 +41774,7 @@
         <v>2.9710000000000001</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A591" s="2">
         <v>156.19999999999999</v>
       </c>
@@ -42088,7 +41803,7 @@
         <v>100.983</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A592" s="2">
         <v>32.43</v>
       </c>
@@ -42117,7 +41832,7 @@
         <v>0.78400000000000003</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A593" s="2">
         <v>67.62</v>
       </c>
@@ -42146,7 +41861,7 @@
         <v>14.407</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A594" s="2">
         <v>7.17</v>
       </c>
@@ -42175,7 +41890,7 @@
         <v>7.6269999999999998</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A595" s="2">
         <v>141.9</v>
       </c>
@@ -42204,7 +41919,7 @@
         <v>36.146000000000001</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A596" s="2">
         <v>63.71</v>
       </c>
@@ -42233,7 +41948,7 @@
         <v>29.21</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A597" s="2">
         <v>1092.1300000000001</v>
       </c>
@@ -42262,7 +41977,7 @@
         <v>312.82600000000002</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A598" s="2">
         <v>181.88</v>
       </c>
@@ -42301,13 +42016,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="I65:R82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E70" workbookViewId="0">
-      <selection activeCell="L85" sqref="L85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="65" spans="9:18" x14ac:dyDescent="0.35">
+    <row r="65" spans="9:18" x14ac:dyDescent="0.25">
       <c r="J65" s="1" t="s">
         <v>8</v>
       </c>
@@ -42336,7 +42051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="9:18" x14ac:dyDescent="0.35">
+    <row r="66" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I66" s="1" t="s">
         <v>8</v>
       </c>
@@ -42377,7 +42092,7 @@
         <v>0.72278989707731778</v>
       </c>
     </row>
-    <row r="67" spans="9:18" x14ac:dyDescent="0.35">
+    <row r="67" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I67" s="1" t="s">
         <v>0</v>
       </c>
@@ -42414,7 +42129,7 @@
         <v>-0.29518512492612825</v>
       </c>
     </row>
-    <row r="68" spans="9:18" x14ac:dyDescent="0.35">
+    <row r="68" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I68" s="1" t="s">
         <v>1</v>
       </c>
@@ -42447,7 +42162,7 @@
         <v>2.1318814622427591E-2</v>
       </c>
     </row>
-    <row r="69" spans="9:18" x14ac:dyDescent="0.35">
+    <row r="69" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I69" s="1" t="s">
         <v>2</v>
       </c>
@@ -42476,7 +42191,7 @@
         <v>2.1301092074384246E-2</v>
       </c>
     </row>
-    <row r="70" spans="9:18" x14ac:dyDescent="0.35">
+    <row r="70" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I70" s="1" t="s">
         <v>3</v>
       </c>
@@ -42501,7 +42216,7 @@
         <v>0.66655758526189279</v>
       </c>
     </row>
-    <row r="71" spans="9:18" x14ac:dyDescent="0.35">
+    <row r="71" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I71" s="1" t="s">
         <v>4</v>
       </c>
@@ -42522,7 +42237,7 @@
         <v>0.40511583276448943</v>
       </c>
     </row>
-    <row r="72" spans="9:18" x14ac:dyDescent="0.35">
+    <row r="72" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I72" s="1" t="s">
         <v>5</v>
       </c>
@@ -42539,7 +42254,7 @@
         <v>0.18344026391643273</v>
       </c>
     </row>
-    <row r="73" spans="9:18" x14ac:dyDescent="0.35">
+    <row r="73" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I73" s="1" t="s">
         <v>6</v>
       </c>
@@ -42552,7 +42267,7 @@
         <v>0.24142412543052855</v>
       </c>
     </row>
-    <row r="74" spans="9:18" x14ac:dyDescent="0.35">
+    <row r="74" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I74" s="1" t="s">
         <v>7</v>
       </c>
@@ -42561,7 +42276,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="78" spans="9:18" x14ac:dyDescent="0.35">
+    <row r="78" spans="9:18" x14ac:dyDescent="0.25">
       <c r="J78" s="1" t="s">
         <v>8</v>
       </c>
@@ -42590,7 +42305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="9:18" x14ac:dyDescent="0.35">
+    <row r="79" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I79" s="1" t="s">
         <v>22</v>
       </c>
@@ -42631,7 +42346,7 @@
         <v>992.846</v>
       </c>
     </row>
-    <row r="80" spans="9:18" x14ac:dyDescent="0.35">
+    <row r="80" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I80" s="1" t="s">
         <v>23</v>
       </c>
@@ -42672,7 +42387,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="81" spans="9:18" x14ac:dyDescent="0.35">
+    <row r="81" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I81" s="1" t="s">
         <v>24</v>
       </c>
@@ -42713,7 +42428,7 @@
         <v>90.754693464488952</v>
       </c>
     </row>
-    <row r="82" spans="9:18" x14ac:dyDescent="0.35">
+    <row r="82" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I82" s="1" t="s">
         <v>25</v>
       </c>
